--- a/_purchased_results.xlsx
+++ b/_purchased_results.xlsx
@@ -436,7 +436,7 @@
         <v>豪華經典艙</v>
       </c>
       <c r="D2" t="str">
-        <v>5198</v>
+        <v>5199</v>
       </c>
       <c r="E2">
         <v>0</v>

--- a/_purchased_results.xlsx
+++ b/_purchased_results.xlsx
@@ -436,7 +436,7 @@
         <v>豪華經典艙</v>
       </c>
       <c r="D2" t="str">
-        <v>5199</v>
+        <v>5294</v>
       </c>
       <c r="E2">
         <v>0</v>
